--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_16_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3025.548042537135</v>
+        <v>-10838.51908034249</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3604175.737570286</v>
+        <v>3604175.737570287</v>
       </c>
     </row>
     <row r="11">
@@ -1372,16 +1372,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>342.8813756254755</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>146.6753150960239</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1530,22 +1530,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>137.4107820664752</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>85.1488807209173</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>214.2309914784215</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>361.464905015728</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1770,22 +1770,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>55.88313987881816</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>1.426178331047085</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>361.4649050157276</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>214.2309914784216</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2016,10 +2016,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>160.733512253838</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>7.722803593220153</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>145.6855068309823</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>167.4490654225681</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>99.886204507085</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>58.65881056865625</v>
       </c>
       <c r="H22" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>214.2309914784215</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>36.71639864354161</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>49.34995949258614</v>
+        <v>15.29216224912242</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>342.0215306365632</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>187.8112552393214</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>65.03738524811781</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
@@ -2781,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>112.7055118911045</v>
       </c>
     </row>
     <row r="29">
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>197.8430749824662</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>356.7495845515401</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -2955,22 +2955,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>102.0556132165393</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>151.1590933655691</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>224.4032842719481</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>136.0829573912428</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3189,25 +3189,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>58.65881056865628</v>
       </c>
       <c r="D34" t="n">
-        <v>49.34995949258614</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>375.2519086004933</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>361.464905015728</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>11.96377639543406</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>126.1427426814928</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3511,16 +3511,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>72.85752083250985</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>204.0461120219733</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
@@ -3562,7 +3562,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>185.0832217507338</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>79.21116459576315</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3745,16 +3745,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>254.494930441161</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>172.5998412330486</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,25 +3900,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>42.38852593713396</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -3963,10 +3963,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>79.21116459576315</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3979,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>146.1973686371451</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.5391303007409</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4137,25 +4137,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>5.348722239841052</v>
       </c>
       <c r="D46" t="n">
-        <v>49.34995949258575</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2360.327577447737</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="C11" t="n">
-        <v>2013.98275358362</v>
+        <v>1300.4974630865</v>
       </c>
       <c r="D11" t="n">
-        <v>1578.072968758064</v>
+        <v>864.5876782609448</v>
       </c>
       <c r="E11" t="n">
-        <v>1144.298223916359</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F11" t="n">
         <v>716.4307943255671</v>
@@ -5041,22 +5041,22 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
         <v>2043.069798152528</v>
@@ -5074,19 +5074,19 @@
         <v>2360.327577447737</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="W11" t="n">
-        <v>2360.327577447737</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="X11" t="n">
-        <v>2360.327577447737</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="Y11" t="n">
-        <v>2360.327577447737</v>
+        <v>1738.639935903077</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
         <v>341.0245550495863</v>
@@ -5111,7 +5111,7 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H12" t="n">
         <v>47.20655154895473</v>
@@ -5123,19 +5123,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L12" t="n">
         <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
         <v>1488.088567599445</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>471.6552262893761</v>
+        <v>995.4336129072205</v>
       </c>
       <c r="C13" t="n">
-        <v>299.0935147726011</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D13" t="n">
-        <v>133.2155219741237</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E13" t="n">
-        <v>47.20655154895473</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F13" t="n">
-        <v>47.20655154895473</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
         <v>47.20655154895473</v>
@@ -5205,16 +5205,16 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>733.4227107706873</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M13" t="n">
-        <v>1317.603786189002</v>
+        <v>818.7256495113488</v>
       </c>
       <c r="N13" t="n">
-        <v>1887.361501150536</v>
+        <v>1388.483364472883</v>
       </c>
       <c r="O13" t="n">
-        <v>2005.127382498298</v>
+        <v>1925.918495046426</v>
       </c>
       <c r="P13" t="n">
         <v>2105.896438675981</v>
@@ -5232,19 +5232,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V13" t="n">
-        <v>1408.311674774551</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W13" t="n">
-        <v>1136.285270360843</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X13" t="n">
-        <v>890.893515694255</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="Y13" t="n">
-        <v>663.4738450083632</v>
+        <v>1187.252231626208</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>701.7439652528259</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C14" t="n">
-        <v>263.6014924362492</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D14" t="n">
-        <v>263.6014924362492</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E14" t="n">
-        <v>263.6014924362492</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F14" t="n">
-        <v>263.6014924362492</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895473</v>
@@ -5281,19 +5281,19 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M14" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
         <v>2043.069798152528</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W14" t="n">
-        <v>1955.47212285877</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X14" t="n">
-        <v>1536.32965943808</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="Y14" t="n">
-        <v>1128.043535737734</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235861</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5396,13 +5396,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W15" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>471.6552262893761</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C16" t="n">
-        <v>299.0935147726011</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D16" t="n">
-        <v>299.0935147726011</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E16" t="n">
-        <v>299.0935147726011</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F16" t="n">
-        <v>299.0935147726011</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G16" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
         <v>47.20655154895473</v>
@@ -5442,13 +5442,13 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>688.1212571728194</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>1272.302332591134</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N16" t="n">
-        <v>1399.801244395024</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O16" t="n">
         <v>1657.620488527956</v>
@@ -5472,16 +5472,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774551</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="X16" t="n">
-        <v>890.893515694255</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="Y16" t="n">
-        <v>663.4738450083632</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>485.3490243655314</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="C17" t="n">
-        <v>47.20655154895473</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="D17" t="n">
-        <v>47.20655154895473</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="E17" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>2143.932636560442</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W17" t="n">
-        <v>1739.077181971475</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="X17" t="n">
-        <v>1319.934718550786</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="Y17" t="n">
-        <v>911.6485948504392</v>
+        <v>1081.546859998019</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
         <v>341.0245550495863</v>
@@ -5588,16 +5588,16 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J18" t="n">
         <v>175.3166270668981</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L18" t="n">
         <v>551.5786779960906</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>894.4683967363985</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C19" t="n">
-        <v>721.9066852196235</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D19" t="n">
-        <v>556.0286924211462</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E19" t="n">
-        <v>386.2706886718834</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F19" t="n">
-        <v>209.5636346336396</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
         <v>192.6919004158277</v>
@@ -5679,13 +5679,13 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>828.1746199579898</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M19" t="n">
-        <v>1412.355695376305</v>
+        <v>818.7256495113488</v>
       </c>
       <c r="N19" t="n">
-        <v>1539.854607180194</v>
+        <v>1388.483364472883</v>
       </c>
       <c r="O19" t="n">
         <v>1657.620488527956</v>
@@ -5697,28 +5697,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>2118.080353351143</v>
+        <v>1965.853003145054</v>
       </c>
       <c r="V19" t="n">
-        <v>1831.124845221573</v>
+        <v>1965.853003145054</v>
       </c>
       <c r="W19" t="n">
-        <v>1559.098440807865</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="X19" t="n">
-        <v>1313.706686141277</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="Y19" t="n">
-        <v>1086.287015455386</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1782.900983623584</v>
+        <v>863.58787193262</v>
       </c>
       <c r="C20" t="n">
-        <v>1344.758510807007</v>
+        <v>863.58787193262</v>
       </c>
       <c r="D20" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E20" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L20" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W20" t="n">
-        <v>2191.18710732393</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="X20" t="n">
-        <v>2191.18710732393</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="Y20" t="n">
-        <v>1782.900983623584</v>
+        <v>1289.887442417528</v>
       </c>
     </row>
     <row r="21">
@@ -5810,31 +5810,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E21" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J21" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
         <v>551.5786779960906</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>616.0817647851416</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C22" t="n">
-        <v>515.1866087173789</v>
+        <v>471.655226289377</v>
       </c>
       <c r="D22" t="n">
-        <v>349.3086159189016</v>
+        <v>471.655226289377</v>
       </c>
       <c r="E22" t="n">
-        <v>179.5506121696388</v>
+        <v>301.8972225401143</v>
       </c>
       <c r="F22" t="n">
-        <v>179.5506121696388</v>
+        <v>301.8972225401143</v>
       </c>
       <c r="G22" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L22" t="n">
-        <v>481.9462364092379</v>
+        <v>828.1746199579906</v>
       </c>
       <c r="M22" t="n">
-        <v>1066.127311827553</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N22" t="n">
-        <v>1635.885026789087</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T22" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.711808856608</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y22" t="n">
-        <v>807.9003835041287</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>701.7439652528259</v>
+        <v>1618.847790237969</v>
       </c>
       <c r="C23" t="n">
-        <v>263.6014924362492</v>
+        <v>1180.705317421392</v>
       </c>
       <c r="D23" t="n">
-        <v>263.6014924362492</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="E23" t="n">
-        <v>263.6014924362492</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F23" t="n">
-        <v>263.6014924362492</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I23" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L23" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q23" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R23" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447737</v>
+        <v>2023.703244826935</v>
       </c>
       <c r="W23" t="n">
-        <v>1955.47212285877</v>
+        <v>1618.847790237969</v>
       </c>
       <c r="X23" t="n">
-        <v>1536.32965943808</v>
+        <v>1618.847790237969</v>
       </c>
       <c r="Y23" t="n">
-        <v>1128.043535737734</v>
+        <v>1618.847790237969</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6047,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D24" t="n">
         <v>341.0245550495863</v>
@@ -6059,19 +6059,19 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J24" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
         <v>551.5786779960906</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>616.0817647851416</v>
+        <v>941.8604769596211</v>
       </c>
       <c r="C25" t="n">
-        <v>443.5200532683665</v>
+        <v>769.298765442846</v>
       </c>
       <c r="D25" t="n">
-        <v>393.6716093364613</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E25" t="n">
-        <v>223.9136055871985</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F25" t="n">
-        <v>47.20655154895473</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G25" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H25" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K25" t="n">
-        <v>202.912315818696</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L25" t="n">
-        <v>744.9929992049549</v>
+        <v>413.3628026016839</v>
       </c>
       <c r="M25" t="n">
-        <v>1329.17407462327</v>
+        <v>997.5438780199987</v>
       </c>
       <c r="N25" t="n">
-        <v>1898.931789584804</v>
+        <v>1567.301592981533</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.32015736263</v>
+        <v>2104.736723555076</v>
       </c>
       <c r="P25" t="n">
         <v>2274.089213540314</v>
@@ -6174,25 +6174,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T25" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U25" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V25" t="n">
-        <v>1552.738213270316</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W25" t="n">
-        <v>1280.711808856608</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X25" t="n">
-        <v>1035.320054190021</v>
+        <v>1169.280147645513</v>
       </c>
       <c r="Y25" t="n">
-        <v>807.9003835041287</v>
+        <v>941.8604769596211</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>916.8910812162151</v>
+        <v>662.4043965773304</v>
       </c>
       <c r="C26" t="n">
-        <v>916.8910812162151</v>
+        <v>662.4043965773304</v>
       </c>
       <c r="D26" t="n">
-        <v>480.9812963906596</v>
+        <v>662.4043965773304</v>
       </c>
       <c r="E26" t="n">
-        <v>47.20655154895472</v>
+        <v>662.4043965773304</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895472</v>
+        <v>662.4043965773304</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001349</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435801</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K26" t="n">
-        <v>512.324927422801</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867016</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M26" t="n">
         <v>1131.588690455489</v>
@@ -6250,28 +6250,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R26" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>2360.327577447736</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V26" t="n">
-        <v>2360.327577447736</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W26" t="n">
-        <v>2170.619238822159</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X26" t="n">
-        <v>1751.47677540147</v>
+        <v>662.4043965773304</v>
       </c>
       <c r="Y26" t="n">
-        <v>1343.190651701123</v>
+        <v>662.4043965773304</v>
       </c>
     </row>
     <row r="27">
@@ -6299,7 +6299,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I27" t="n">
         <v>81.42328772043084</v>
@@ -6308,7 +6308,7 @@
         <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
         <v>551.5786779960906</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>550.3874362516887</v>
+        <v>585.2309455701119</v>
       </c>
       <c r="C28" t="n">
-        <v>377.8257247349136</v>
+        <v>585.2309455701119</v>
       </c>
       <c r="D28" t="n">
-        <v>211.9477319364363</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="E28" t="n">
-        <v>211.9477319364363</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F28" t="n">
-        <v>211.9477319364363</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895472</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>358.0754347909393</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>481.9462364092371</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M28" t="n">
         <v>1066.127311827552</v>
@@ -6399,7 +6399,7 @@
         <v>1635.885026789086</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.320157362629</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P28" t="n">
         <v>2274.089213540313</v>
@@ -6408,28 +6408,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R28" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2294.633248914284</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T28" t="n">
-        <v>2052.38602481769</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U28" t="n">
-        <v>1773.999392866433</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V28" t="n">
-        <v>1487.043884736863</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W28" t="n">
-        <v>1215.017480323155</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X28" t="n">
-        <v>969.6257256565675</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.2060549706757</v>
+        <v>777.049564289099</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>716.4307943255671</v>
+        <v>807.062358578104</v>
       </c>
       <c r="C29" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D29" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E29" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F29" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G29" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H29" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J29" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867026</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O29" t="n">
         <v>1775.969506973259</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U29" t="n">
-        <v>2148.556325916849</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V29" t="n">
-        <v>2148.556325916849</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W29" t="n">
-        <v>1743.700871327882</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="X29" t="n">
-        <v>1324.558407907193</v>
+        <v>1641.648052763358</v>
       </c>
       <c r="Y29" t="n">
-        <v>916.2722842068462</v>
+        <v>1233.361929063012</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>175.316627066898</v>
       </c>
       <c r="K30" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M30" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O30" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P30" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q30" t="n">
         <v>1614.947661807679</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>561.2164974914551</v>
+        <v>1030.637138832654</v>
       </c>
       <c r="C31" t="n">
-        <v>388.6547859746801</v>
+        <v>858.075427315879</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6547859746801</v>
+        <v>692.1974345174017</v>
       </c>
       <c r="E31" t="n">
-        <v>388.6547859746801</v>
+        <v>522.4394307681389</v>
       </c>
       <c r="F31" t="n">
-        <v>211.9477319364363</v>
+        <v>345.7323767298951</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
         <v>47.20655154895473</v>
@@ -6651,22 +6651,22 @@
         <v>2215.901038951971</v>
       </c>
       <c r="T31" t="n">
-        <v>2063.215086057457</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>1784.8284541062</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V31" t="n">
-        <v>1497.87294597663</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W31" t="n">
-        <v>1225.846541562922</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="X31" t="n">
-        <v>980.4547868963341</v>
+        <v>1449.875428237533</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.0351162104423</v>
+        <v>1222.455757551641</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>701.7439652528259</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="C32" t="n">
-        <v>701.7439652528259</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="D32" t="n">
-        <v>701.7439652528259</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E32" t="n">
-        <v>701.7439652528259</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F32" t="n">
-        <v>273.8765356620336</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L32" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
@@ -6727,25 +6727,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V32" t="n">
-        <v>2360.327577447737</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="W32" t="n">
-        <v>1955.47212285877</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="X32" t="n">
-        <v>1536.32965943808</v>
+        <v>2182.403674944107</v>
       </c>
       <c r="Y32" t="n">
-        <v>1128.043535737734</v>
+        <v>2182.403674944107</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>1119.791305117177</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D33" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E33" t="n">
-        <v>930.5806015906844</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F33" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G33" t="n">
-        <v>762.8256627965029</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H33" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I33" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J33" t="n">
-        <v>858.9930882810423</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M33" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N33" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O33" t="n">
-        <v>1981.990728248782</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P33" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q33" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R33" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S33" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T33" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U33" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V33" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W33" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X33" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y33" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="34">
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>616.0817647851416</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C34" t="n">
-        <v>443.5200532683665</v>
+        <v>412.4039024826535</v>
       </c>
       <c r="D34" t="n">
-        <v>393.6716093364613</v>
+        <v>412.4039024826535</v>
       </c>
       <c r="E34" t="n">
-        <v>223.9136055871985</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895473</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J34" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K34" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L34" t="n">
-        <v>744.9929992049549</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M34" t="n">
-        <v>1329.17407462327</v>
+        <v>1690.512214359095</v>
       </c>
       <c r="N34" t="n">
-        <v>1898.931789584804</v>
+        <v>1887.361501150537</v>
       </c>
       <c r="O34" t="n">
-        <v>2173.32015736263</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P34" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T34" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U34" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V34" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W34" t="n">
-        <v>1280.711808856608</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X34" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y34" t="n">
-        <v>807.9003835041287</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>716.4307943255671</v>
+        <v>1320.76150051161</v>
       </c>
       <c r="C35" t="n">
-        <v>716.4307943255671</v>
+        <v>882.6190276950331</v>
       </c>
       <c r="D35" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E35" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F35" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L35" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
@@ -6970,19 +6970,19 @@
         <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>1849.01926465316</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V35" t="n">
-        <v>1486.402314586986</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W35" t="n">
-        <v>1081.54685999802</v>
+        <v>1729.047624211956</v>
       </c>
       <c r="X35" t="n">
-        <v>1081.54685999802</v>
+        <v>1729.047624211956</v>
       </c>
       <c r="Y35" t="n">
-        <v>716.4307943255671</v>
+        <v>1320.76150051161</v>
       </c>
     </row>
     <row r="36">
@@ -6995,43 +6995,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E36" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G36" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M36" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O36" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P36" t="n">
         <v>1488.088567599445</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>471.6552262893761</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C37" t="n">
-        <v>299.0935147726011</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D37" t="n">
-        <v>299.0935147726011</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E37" t="n">
-        <v>287.0088921509505</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F37" t="n">
-        <v>110.3018381127067</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G37" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H37" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J37" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L37" t="n">
-        <v>326.783117436994</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M37" t="n">
-        <v>910.9641928553087</v>
+        <v>818.7256495113488</v>
       </c>
       <c r="N37" t="n">
-        <v>1480.721907816843</v>
+        <v>1388.483364472883</v>
       </c>
       <c r="O37" t="n">
-        <v>2018.157038390386</v>
+        <v>1925.918495046426</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T37" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U37" t="n">
-        <v>1695.267182904121</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="V37" t="n">
-        <v>1408.311674774551</v>
+        <v>1928.945530822402</v>
       </c>
       <c r="W37" t="n">
-        <v>1136.285270360843</v>
+        <v>1656.919126408694</v>
       </c>
       <c r="X37" t="n">
-        <v>890.893515694255</v>
+        <v>1411.527371742106</v>
       </c>
       <c r="Y37" t="n">
-        <v>663.4738450083632</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1526.868684372189</v>
+        <v>1422.719694168253</v>
       </c>
       <c r="C38" t="n">
-        <v>1088.726211555612</v>
+        <v>984.5772213516761</v>
       </c>
       <c r="D38" t="n">
-        <v>652.8164267300567</v>
+        <v>548.6674365261206</v>
       </c>
       <c r="E38" t="n">
-        <v>652.8164267300567</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
-        <v>652.8164267300567</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G38" t="n">
-        <v>253.3137354095339</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.406501800135</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2148.556325916848</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>1889.485634438362</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V38" t="n">
-        <v>1526.868684372189</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W38" t="n">
-        <v>1526.868684372189</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X38" t="n">
-        <v>1526.868684372189</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y38" t="n">
-        <v>1526.868684372189</v>
+        <v>1849.01926465316</v>
       </c>
     </row>
     <row r="39">
@@ -7232,46 +7232,46 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E39" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G39" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P39" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q39" t="n">
         <v>1614.947661807679</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>864.4553742723976</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C40" t="n">
-        <v>691.8936627556226</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D40" t="n">
-        <v>526.0156699571453</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E40" t="n">
-        <v>356.2576662078826</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F40" t="n">
-        <v>179.5506121696388</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G40" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>744.9929992049549</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M40" t="n">
-        <v>875.5973915434844</v>
+        <v>550.4276429928792</v>
       </c>
       <c r="N40" t="n">
-        <v>1445.355106505019</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O40" t="n">
-        <v>1982.790237078561</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U40" t="n">
-        <v>1695.267182904121</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="V40" t="n">
-        <v>1408.311674774551</v>
+        <v>2028.948289708806</v>
       </c>
       <c r="W40" t="n">
-        <v>1136.285270360843</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.273992991385</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.273992991385</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1170.282040260527</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C41" t="n">
-        <v>732.13956744395</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D41" t="n">
-        <v>732.13956744395</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E41" t="n">
-        <v>732.13956744395</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F41" t="n">
-        <v>304.2721378531577</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L41" t="n">
         <v>805.4408022867023</v>
@@ -7426,7 +7426,7 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
         <v>2043.069798152528</v>
@@ -7435,28 +7435,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U41" t="n">
-        <v>2360.327577447736</v>
+        <v>2145.517933689757</v>
       </c>
       <c r="V41" t="n">
-        <v>1997.710627381563</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="W41" t="n">
-        <v>1997.710627381563</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="X41" t="n">
-        <v>1578.568163960873</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="Y41" t="n">
-        <v>1170.282040260527</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J42" t="n">
-        <v>858.9930882810423</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1981.990728248782</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>2360.327577447736</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.70654684747</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>864.4553742723976</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C43" t="n">
-        <v>691.8936627556226</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="D43" t="n">
-        <v>526.0156699571453</v>
+        <v>450.2037719866643</v>
       </c>
       <c r="E43" t="n">
-        <v>356.2576662078826</v>
+        <v>450.2037719866643</v>
       </c>
       <c r="F43" t="n">
-        <v>179.5506121696388</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G43" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>481.9462364092376</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M43" t="n">
-        <v>1066.127311827552</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N43" t="n">
-        <v>1635.885026789086</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O43" t="n">
-        <v>2173.320157362629</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T43" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W43" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.273992991385</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.273992991385</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1492.432620541497</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="C44" t="n">
-        <v>1344.758510807007</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="D44" t="n">
-        <v>908.8487259814518</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E44" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M44" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
         <v>1775.969506973259</v>
@@ -7672,28 +7672,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>2319.861207662533</v>
+        <v>2075.882288166836</v>
       </c>
       <c r="V44" t="n">
-        <v>2319.861207662533</v>
+        <v>1713.265338100662</v>
       </c>
       <c r="W44" t="n">
-        <v>2319.861207662533</v>
+        <v>1308.409883511696</v>
       </c>
       <c r="X44" t="n">
-        <v>1900.718744241844</v>
+        <v>889.2674200910062</v>
       </c>
       <c r="Y44" t="n">
-        <v>1492.432620541497</v>
+        <v>480.9812963906596</v>
       </c>
     </row>
     <row r="45">
@@ -7706,7 +7706,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
         <v>341.0245550495863</v>
@@ -7718,19 +7718,19 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J45" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
         <v>551.5786779960906</v>
@@ -7782,58 +7782,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.0817647851411</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C46" t="n">
-        <v>443.520053268366</v>
+        <v>610.6790150479284</v>
       </c>
       <c r="D46" t="n">
-        <v>393.6716093364612</v>
+        <v>444.801022249451</v>
       </c>
       <c r="E46" t="n">
-        <v>223.9136055871985</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895472</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>744.9929992049549</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M46" t="n">
-        <v>1329.174074623269</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N46" t="n">
-        <v>1898.931789584803</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.320157362629</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
         <v>2118.080353351143</v>
@@ -7848,10 +7848,10 @@
         <v>1280.711808856608</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.32005419002</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.9003835041283</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
   </sheetData>
@@ -8853,19 +8853,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>45.75904403825052</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>80.00897722411264</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9090,16 +9090,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371569</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>141.4680432173442</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9327,16 +9327,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>141.4680432173438</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>152.9002451588999</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>156.7304232042869</v>
+        <v>141.4680432173446</v>
       </c>
       <c r="M22" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,25 +9795,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>158.2045317475399</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>69.27619576520543</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M28" t="n">
-        <v>458.1582657371569</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10278,7 +10278,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>177.1920849464597</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -10506,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>70.05088382580993</v>
       </c>
       <c r="O34" t="n">
-        <v>158.2045317475399</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -10761,10 +10761,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>156.730423204287</v>
+        <v>80.0089772241131</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10986,10 +10986,10 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>93.97993254278362</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -10998,10 +10998,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>192.4544649334019</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>156.7304232042866</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371567</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>158.2045317475394</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,16 +23260,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>90.87967246293539</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>282.7616822972639</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23314,10 +23314,10 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>33.42531233513208</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.91154299085281</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>62.46433369811443</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23509,10 +23509,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>181.2766729288961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>53.48613377075435</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>107.2106287047886</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>267.8799620385243</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>67.97209237756016</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>144.7597890870902</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.360256329768735</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>267.8799620385243</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>285.8651801463176</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>233.3578346205089</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>70.94988989452231</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>104.4349580149505</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>181.2766729288961</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>322.2743819219701</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>114.8692533779064</v>
+        <v>148.9270506213701</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>53.48613377075435</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>212.9956448037556</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>77.94488786269001</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>112.4399620879283</v>
       </c>
     </row>
     <row r="29">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>224.1934997975925</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>77.01146353687085</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>61.03815536706747</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>88.66565849005833</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>171.1043801353695</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
@@ -24976,16 +24976,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>222.907823174269</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>112.177283832951</v>
       </c>
       <c r="D34" t="n">
-        <v>114.8692533779064</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25156,10 +25156,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>25.55499144258368</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>42.73835744761504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>156.0966473163361</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>99.00273129753998</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>356.5794765607779</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>62.97822391955534</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>99.00273129754001</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>163.7266725241585</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,16 +25633,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>141.0127339661566</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>83.88014333065257</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>132.5514575607274</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>163.7266725241585</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,16 +25867,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>287.5636794512658</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>395.5076644073176</v>
@@ -25921,13 +25921,13 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>14.94085426296024</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>165.4873721617662</v>
       </c>
       <c r="D46" t="n">
-        <v>114.8692533779068</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>415369.8284358521</v>
+        <v>415369.8284358522</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>415369.8284358521</v>
+        <v>415369.8284358523</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>415369.8284358521</v>
+        <v>415369.8284358522</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>415369.828435852</v>
+        <v>415369.8284358521</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>415369.8284358521</v>
+        <v>415369.8284358522</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>415369.8284358521</v>
+        <v>415369.8284358523</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>415369.8284358522</v>
+        <v>415369.8284358523</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>415369.828435852</v>
+        <v>415369.8284358523</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>415369.828435852</v>
+        <v>415369.8284358522</v>
       </c>
     </row>
   </sheetData>
@@ -26334,13 +26334,13 @@
         <v>149432.6927357765</v>
       </c>
       <c r="I2" t="n">
-        <v>149432.6927357764</v>
+        <v>149432.6927357765</v>
       </c>
       <c r="J2" t="n">
         <v>149432.6927357765</v>
       </c>
       <c r="K2" t="n">
-        <v>149432.6927357764</v>
+        <v>149432.6927357765</v>
       </c>
       <c r="L2" t="n">
         <v>149432.6927357765</v>
@@ -26435,25 +26435,25 @@
         <v>14728.7909942616</v>
       </c>
       <c r="H4" t="n">
-        <v>14728.7909942616</v>
+        <v>14728.79099426161</v>
       </c>
       <c r="I4" t="n">
         <v>14728.7909942616</v>
       </c>
       <c r="J4" t="n">
-        <v>14728.79099426159</v>
+        <v>14728.7909942616</v>
       </c>
       <c r="K4" t="n">
         <v>14728.7909942616</v>
       </c>
       <c r="L4" t="n">
-        <v>14728.7909942616</v>
+        <v>14728.79099426161</v>
       </c>
       <c r="M4" t="n">
         <v>14728.7909942616</v>
       </c>
       <c r="N4" t="n">
-        <v>14728.7909942616</v>
+        <v>14728.79099426161</v>
       </c>
       <c r="O4" t="n">
         <v>14728.7909942616</v>
@@ -26487,10 +26487,10 @@
         <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="J5" t="n">
         <v>46051.08120963781</v>
@@ -26499,13 +26499,13 @@
         <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="O5" t="n">
         <v>46051.08120963781</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-462482.3804587987</v>
+        <v>-463036.2609020207</v>
       </c>
       <c r="F6" t="n">
-        <v>88652.82053187705</v>
+        <v>88098.94008865512</v>
       </c>
       <c r="G6" t="n">
-        <v>88652.82053187705</v>
+        <v>88098.94008865512</v>
       </c>
       <c r="H6" t="n">
-        <v>88652.82053187708</v>
+        <v>88098.94008865516</v>
       </c>
       <c r="I6" t="n">
-        <v>88652.82053187702</v>
+        <v>88098.94008865516</v>
       </c>
       <c r="J6" t="n">
-        <v>88652.82053187705</v>
+        <v>88098.94008865512</v>
       </c>
       <c r="K6" t="n">
-        <v>88652.82053187699</v>
+        <v>88098.94008865512</v>
       </c>
       <c r="L6" t="n">
-        <v>88652.82053187708</v>
+        <v>88098.94008865513</v>
       </c>
       <c r="M6" t="n">
-        <v>-58397.94787069436</v>
+        <v>-58951.82831391629</v>
       </c>
       <c r="N6" t="n">
-        <v>88652.82053187705</v>
+        <v>88098.94008865513</v>
       </c>
       <c r="O6" t="n">
-        <v>88652.82053187708</v>
+        <v>88098.94008865512</v>
       </c>
       <c r="P6" t="n">
-        <v>88652.82053187708</v>
+        <v>88098.94008865512</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
         <v>466.7019280932211</v>
@@ -26758,28 +26758,28 @@
         <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
     </row>
     <row r="4">
@@ -26804,34 +26804,34 @@
         <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="H4" t="n">
+        <v>590.0818943619342</v>
+      </c>
+      <c r="I4" t="n">
+        <v>590.0818943619342</v>
+      </c>
+      <c r="J4" t="n">
         <v>590.0818943619341</v>
-      </c>
-      <c r="H4" t="n">
-        <v>590.0818943619341</v>
-      </c>
-      <c r="I4" t="n">
-        <v>590.0818943619341</v>
-      </c>
-      <c r="J4" t="n">
-        <v>590.081894361934</v>
       </c>
       <c r="K4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="L4" t="n">
+        <v>590.0818943619342</v>
+      </c>
+      <c r="M4" t="n">
+        <v>590.0818943619342</v>
+      </c>
+      <c r="N4" t="n">
+        <v>590.0818943619342</v>
+      </c>
+      <c r="O4" t="n">
         <v>590.0818943619341</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>590.0818943619341</v>
-      </c>
-      <c r="N4" t="n">
-        <v>590.081894361934</v>
-      </c>
-      <c r="O4" t="n">
-        <v>590.081894361934</v>
-      </c>
-      <c r="P4" t="n">
-        <v>590.081894361934</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
@@ -32247,7 +32247,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.116681354841</v>
@@ -32256,19 +32256,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,25 +32311,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
@@ -32338,7 +32338,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
@@ -32347,7 +32347,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
         <v>97.77787936116989</v>
@@ -32405,16 +32405,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
         <v>37.84111043195198</v>
@@ -32426,7 +32426,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062837</v>
@@ -32484,28 +32484,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,25 +32548,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
@@ -32575,7 +32575,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
@@ -32584,7 +32584,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
         <v>97.77787936116989</v>
@@ -32642,16 +32642,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R22" t="n">
         <v>37.84111043195198</v>
@@ -32663,7 +32663,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U23" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32879,28 +32879,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H26" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U26" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,46 +33019,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33116,28 +33116,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O28" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R28" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U29" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,28 +33256,28 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
         <v>191.6912126917232</v>
@@ -33286,16 +33286,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33353,28 +33353,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R31" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H32" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U32" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,46 +33493,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002376</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33590,28 +33590,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O34" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R34" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H35" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U35" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,46 +33730,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33827,28 +33827,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O37" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U38" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,28 +33967,28 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
         <v>191.6912126917232</v>
@@ -33997,16 +33997,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34064,28 +34064,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R40" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34301,28 +34301,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H44" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916797</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
@@ -34538,28 +34538,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R46" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,16 +35406,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
@@ -35427,7 +35427,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35488,25 +35488,25 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35573,19 +35573,19 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>170.8810658749151</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N13" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>181.7959026561161</v>
       </c>
       <c r="Q13" t="n">
         <v>240.36368292423</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35664,7 +35664,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619341</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>260.4234789221541</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P16" t="n">
         <v>452.8039900485103</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35898,16 +35898,16 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916796</v>
+        <v>34.56235976916794</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
@@ -36047,25 +36047,25 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>266.5900650540084</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>118.9554357048098</v>
+        <v>271.8556808637097</v>
       </c>
       <c r="P19" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,10 +36117,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062837</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916796</v>
+        <v>34.56235976916785</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624557</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>281.8524450409515</v>
+        <v>266.5900650540092</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207615</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,19 +36354,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36375,13 +36375,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916796</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624557</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N25" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
-        <v>277.15996745235</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>171.0631211972095</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207615</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,19 +36591,19 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>167.0540751263753</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366645</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M28" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561045</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
         <v>101.7869254320035</v>
@@ -36776,7 +36776,7 @@
         <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,25 +36828,25 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
         <v>269.7982739184536</v>
@@ -36910,13 +36910,13 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -36934,7 +36934,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37013,7 +37013,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,13 +37065,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
         <v>296.0766412766674</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -37162,16 +37162,16 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002376</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624557</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M34" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N34" t="n">
-        <v>575.512843395489</v>
+        <v>198.8376634256983</v>
       </c>
       <c r="O34" t="n">
-        <v>277.15996745235</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P34" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.47199114207615</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,19 +37302,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125707</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L35" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -37402,7 +37402,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624557</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N37" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>258.5173486362905</v>
+        <v>181.7959026561166</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.47199114207615</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
@@ -37551,13 +37551,13 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
         <v>269.7982739184536</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -37645,7 +37645,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247772</v>
+        <v>225.9035611675608</v>
       </c>
       <c r="N40" t="n">
         <v>575.5128433954891</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>294.2413903654053</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
@@ -37785,7 +37785,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37794,13 +37794,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
         <v>117.855135640546</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -37873,16 +37873,16 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>281.8524450409511</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561041</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,22 +38013,22 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
         <v>316.1166813548409</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916797</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
         <v>217.963008964669</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624556</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619339</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>277.1599674523493</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
